--- a/va_facility_data_2025-02-20/Saint Croix VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saint%20Croix%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Saint Croix VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saint%20Croix%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd207d529044648d6a17a33cfc1374d4d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf5b4234ce9774e1e93505c28435f5fb3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc9162af577604ff9ba35a7deee0977f8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8ed2d95a6fcd4d238d54026b3092cea1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R89b58ad57ecd4913be4a96eb26b6e953"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb056170947af42d083f96bc9fbe41a47"/>
   </x:sheets>
 </x:workbook>
 </file>
